--- a/Assets/Resources/Json/.Task1Config.xlsx
+++ b/Assets/Resources/Json/.Task1Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26560" windowHeight="13920"/>
+    <workbookView windowHeight="17925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,49 +55,49 @@
     <t>需要次数/奖励数量</t>
   </si>
   <si>
-    <t>Fly x times</t>
-  </si>
-  <si>
-    <t>Watch x ads</t>
-  </si>
-  <si>
-    <t>Upgrade x items</t>
-  </si>
-  <si>
-    <t>Open x boxes</t>
-  </si>
-  <si>
-    <t>Buy x items</t>
-  </si>
-  <si>
-    <t>Collect x rewards</t>
-  </si>
-  <si>
-    <t>Complete X paint changes</t>
-  </si>
-  <si>
-    <t>Check the leaderboard X times</t>
-  </si>
-  <si>
-    <t>Upgrade any enhancement X times</t>
-  </si>
-  <si>
-    <t>Collect X coins during flight</t>
-  </si>
-  <si>
-    <t>Active Reward: Coins</t>
-  </si>
-  <si>
-    <t>Active Reward: Gems</t>
-  </si>
-  <si>
-    <t>Active Reward: Basic Chest</t>
-  </si>
-  <si>
-    <t>Active Reward: Premium Chest</t>
-  </si>
-  <si>
-    <t>Active Reward: Luxury Chest</t>
+    <t>完成X次飞行</t>
+  </si>
+  <si>
+    <t>观看X次广告</t>
+  </si>
+  <si>
+    <t>升级X次部件</t>
+  </si>
+  <si>
+    <t>打开X个部件宝箱</t>
+  </si>
+  <si>
+    <t>商店购买X次部件</t>
+  </si>
+  <si>
+    <t>领取X次在线奖励</t>
+  </si>
+  <si>
+    <t>完成X次涂装更换</t>
+  </si>
+  <si>
+    <t>查看X次排行榜</t>
+  </si>
+  <si>
+    <t>升级任意一项强化X次</t>
+  </si>
+  <si>
+    <t>飞行中捡取X枚金币</t>
+  </si>
+  <si>
+    <t>活跃奖励金币</t>
+  </si>
+  <si>
+    <t>活跃奖励钻石</t>
+  </si>
+  <si>
+    <t>活跃奖励基础宝箱</t>
+  </si>
+  <si>
+    <t>活跃奖励精品宝箱</t>
+  </si>
+  <si>
+    <t>活跃奖励豪华宝箱</t>
   </si>
 </sst>
 </file>
@@ -110,26 +110,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -137,14 +130,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -152,7 +145,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -160,7 +153,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -168,7 +161,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -176,7 +169,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -184,14 +177,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -199,7 +192,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -207,7 +200,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -215,14 +208,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -230,42 +223,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -602,137 +595,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,61 +740,58 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1062,16 +1052,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="25.6484375" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
@@ -1248,7 +1238,7 @@
       <c r="A13" s="3">
         <v>101</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4">
@@ -1262,7 +1252,7 @@
       <c r="A14" s="3">
         <v>102</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="4">
@@ -1276,7 +1266,7 @@
       <c r="A15" s="3">
         <v>103</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="4">
@@ -1290,7 +1280,7 @@
       <c r="A16" s="3">
         <v>104</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="4">
@@ -1304,7 +1294,7 @@
       <c r="A17" s="3">
         <v>105</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="4">
@@ -1313,30 +1303,6 @@
       <c r="D17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" ht="17.6" spans="2:2">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" ht="17.6" spans="2:2">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" ht="17.6" spans="2:2">
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" ht="17.6" spans="2:2">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" ht="17.6" spans="2:2">
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" ht="17.6" spans="2:2">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" ht="17.6" spans="2:2">
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" ht="17.6" spans="2:2">
-      <c r="B26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1354,7 +1320,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1371,7 +1337,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Resources/Json/.Task1Config.xlsx
+++ b/Assets/Resources/Json/.Task1Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17925"/>
+    <workbookView windowWidth="26560" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,49 +55,49 @@
     <t>需要次数/奖励数量</t>
   </si>
   <si>
-    <t>完成X次飞行</t>
-  </si>
-  <si>
-    <t>观看X次广告</t>
-  </si>
-  <si>
-    <t>升级X次部件</t>
-  </si>
-  <si>
-    <t>打开X个部件宝箱</t>
-  </si>
-  <si>
-    <t>商店购买X次部件</t>
-  </si>
-  <si>
-    <t>领取X次在线奖励</t>
-  </si>
-  <si>
-    <t>完成X次涂装更换</t>
-  </si>
-  <si>
-    <t>查看X次排行榜</t>
-  </si>
-  <si>
-    <t>升级任意一项强化X次</t>
-  </si>
-  <si>
-    <t>飞行中捡取X枚金币</t>
-  </si>
-  <si>
-    <t>活跃奖励金币</t>
-  </si>
-  <si>
-    <t>活跃奖励钻石</t>
-  </si>
-  <si>
-    <t>活跃奖励基础宝箱</t>
-  </si>
-  <si>
-    <t>活跃奖励精品宝箱</t>
-  </si>
-  <si>
-    <t>活跃奖励豪华宝箱</t>
+    <t>Fly x times</t>
+  </si>
+  <si>
+    <t>Watch x ads</t>
+  </si>
+  <si>
+    <t>Upgrade x items</t>
+  </si>
+  <si>
+    <t>Open x boxes</t>
+  </si>
+  <si>
+    <t>Buy x items</t>
+  </si>
+  <si>
+    <t>Collect x rewards</t>
+  </si>
+  <si>
+    <t>Complete X paint changes</t>
+  </si>
+  <si>
+    <t>Check the leaderboard X times</t>
+  </si>
+  <si>
+    <t>Upgrade any enhancement X times</t>
+  </si>
+  <si>
+    <t>Collect X coins during flight</t>
+  </si>
+  <si>
+    <t>Active Reward: Coins</t>
+  </si>
+  <si>
+    <t>Active Reward: Gems</t>
+  </si>
+  <si>
+    <t>Active Reward: Basic Chest</t>
+  </si>
+  <si>
+    <t>Active Reward: Premium Chest</t>
+  </si>
+  <si>
+    <t>Active Reward: Luxury Chest</t>
   </si>
 </sst>
 </file>
@@ -110,19 +110,26 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -130,14 +137,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -145,7 +152,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -153,7 +160,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -161,7 +168,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -169,7 +176,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -177,14 +184,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -192,7 +199,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -200,7 +207,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -208,14 +215,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -223,42 +230,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -595,137 +602,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,58 +747,61 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1052,16 +1062,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="25.6484375" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
@@ -1238,7 +1248,7 @@
       <c r="A13" s="3">
         <v>101</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4">
@@ -1252,7 +1262,7 @@
       <c r="A14" s="3">
         <v>102</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="4">
@@ -1266,7 +1276,7 @@
       <c r="A15" s="3">
         <v>103</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="4">
@@ -1280,7 +1290,7 @@
       <c r="A16" s="3">
         <v>104</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="4">
@@ -1294,7 +1304,7 @@
       <c r="A17" s="3">
         <v>105</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="4">
@@ -1303,6 +1313,30 @@
       <c r="D17" s="4">
         <v>1</v>
       </c>
+    </row>
+    <row r="19" ht="17.6" spans="2:2">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" ht="17.6" spans="2:2">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" ht="17.6" spans="2:2">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" ht="17.6" spans="2:2">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" ht="17.6" spans="2:2">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" ht="17.6" spans="2:2">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" ht="17.6" spans="2:2">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" ht="17.6" spans="2:2">
+      <c r="B26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1320,7 +1354,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1337,7 +1371,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
